--- a/Manuscript/CD122-132MonomericBinding.xlsx
+++ b/Manuscript/CD122-132MonomericBinding.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Science\IL2\External collaboration and CROs\Meyer collaboration\Octet Monomeric Binding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orcut\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B793AB-C2DE-4C14-A1F1-934A90E507DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C6DD28-032D-4303-83E0-AD6E9C530E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13785" yWindow="2385" windowWidth="25155" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
   <si>
     <t>IL2-060 N-term WT monomeric biotinylated</t>
   </si>
@@ -74,12 +72,6 @@
     <t>Cterm V91K monomeric biotinylated</t>
   </si>
   <si>
-    <t>IL2-062 monomeric biotinylated</t>
-  </si>
-  <si>
-    <t>IL2-118 monomeric biotinylated</t>
-  </si>
-  <si>
     <t>IL2-110 monomeric biotinylated</t>
   </si>
   <si>
@@ -87,6 +79,18 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -421,26 +425,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T94" sqref="T94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="4" width="9.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44176</v>
       </c>
@@ -448,7 +452,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -492,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>400</v>
       </c>
@@ -536,7 +540,7 @@
         <v>0.27860000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>400</v>
       </c>
@@ -580,7 +584,7 @@
         <v>0.26619999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>160</v>
       </c>
@@ -624,7 +628,7 @@
         <v>0.25580000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>160</v>
       </c>
@@ -668,7 +672,7 @@
         <v>0.25140000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>64</v>
       </c>
@@ -712,7 +716,7 @@
         <v>0.2651</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>64</v>
       </c>
@@ -756,7 +760,7 @@
         <v>0.2034</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>25.6</v>
       </c>
@@ -800,7 +804,7 @@
         <v>0.23430000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>25.6</v>
       </c>
@@ -844,7 +848,7 @@
         <v>0.2777</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -888,7 +892,7 @@
         <v>0.2752</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -932,7 +936,7 @@
         <v>0.24030000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -976,7 +980,7 @@
         <v>0.2452</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>0.2339</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>1.64</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>0.2034</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>1.64</v>
       </c>
@@ -1108,9 +1112,9 @@
         <v>0.2253</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C5:C14)*10^9</f>
@@ -1126,7 +1130,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K20" s="3">
         <f>AVERAGE(K5:K10,K12:K17)*10^9</f>
@@ -1142,15 +1146,15 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44176</v>
       </c>
@@ -1158,11 +1162,11 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>400</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>0.19470000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>160</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>64</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>0.18740000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>25.6</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>10.199999999999999</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>0.18179999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.64</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>0.14280000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4.0999999999999996</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>0.1192</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>400</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>0.21240000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>160</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>0.1862</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>64</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>0.1696</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>25.6</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>0.1764</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10.199999999999999</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>0.1948</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.64</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.0999999999999996</v>
       </c>
@@ -1822,9 +1826,9 @@
         <v>0.1734</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE(C26:C30,C33:C37)*10^9</f>
@@ -1840,7 +1844,7 @@
       </c>
       <c r="G41" s="3"/>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3">
         <f>AVERAGE(K26:K31,K33:K38)*10^9</f>
@@ -1851,12 +1855,12 @@
         <v>209850000000000</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" ref="L41:M41" si="3">AVERAGE(M26:M31,M33:M38)*10^9</f>
+        <f t="shared" ref="M41" si="3">AVERAGE(M26:M31,M33:M38)*10^9</f>
         <v>359425</v>
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1869,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44176</v>
       </c>
@@ -1873,11 +1877,11 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>400</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>0.16750000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>160</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>0.1229</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>64</v>
       </c>
@@ -2053,7 +2057,7 @@
         <v>0.1085</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>25.6</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>9.1399999999999995E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10.199999999999999</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4.0999999999999996</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1.64</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>400</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>160</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>0.1406</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>64</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>0.1033</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>25.6</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10.199999999999999</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>4.0999999999999996</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.64</v>
       </c>
@@ -2537,9 +2541,9 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C62" s="3">
         <f>AVERAGE(C47:C51,C54:C58)*10^9</f>
@@ -2555,7 +2559,7 @@
       </c>
       <c r="G62" s="3"/>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K62" s="3">
         <f>AVERAGE(K47:K52,K55:K57,K59)*10^9</f>
@@ -2571,18 +2575,18 @@
       </c>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44176</v>
       </c>
@@ -2590,11 +2594,11 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>400</v>
       </c>
@@ -2682,7 +2686,7 @@
         <v>0.24479999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>160</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>0.2278</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>64</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>0.21110000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>25.6</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>0.24149999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>10.199999999999999</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>0.15859999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4.0999999999999996</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1.64</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>9.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>400</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>0.25619999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>160</v>
       </c>
@@ -3034,7 +3038,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>64</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>0.21940000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>25.6</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>0.1777</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>10.199999999999999</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>0.17319999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>4.0999999999999996</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1.64</v>
       </c>
@@ -3254,9 +3258,9 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" s="3">
         <f>AVERAGE(C68:C72,C75:C79)*10^9</f>
@@ -3272,7 +3276,7 @@
       </c>
       <c r="G83" s="3"/>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K83" s="3">
         <f>AVERAGE(K68:K73,K75:K80)*10^9</f>
@@ -3288,1433 +3292,1472 @@
       </c>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>44176</v>
-      </c>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I86" s="2">
         <v>43832</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>1</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B87" t="s">
         <v>2</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C87" t="s">
         <v>3</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D87" t="s">
         <v>9</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E87" t="s">
         <v>5</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F87" t="s">
         <v>6</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G87" t="s">
         <v>7</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I87" t="s">
         <v>1</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J87" t="s">
         <v>2</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K87" t="s">
         <v>3</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L87" t="s">
         <v>9</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M87" t="s">
         <v>5</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N87" t="s">
         <v>6</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O87" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>400</v>
+      </c>
+      <c r="B88">
+        <v>0.2732</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3.182E-9</v>
+      </c>
+      <c r="D88" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3.7589999999999998E-4</v>
+      </c>
+      <c r="F88" s="3">
+        <v>3.3799999999999998E-6</v>
+      </c>
+      <c r="G88">
+        <v>0.2918</v>
+      </c>
+      <c r="I88">
+        <v>400</v>
+      </c>
+      <c r="J88">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="K88" s="3">
+        <v>4.9849999999999996E-9</v>
+      </c>
+      <c r="L88" s="3">
+        <v>95060</v>
+      </c>
+      <c r="M88" s="3">
+        <v>4.7390000000000003E-4</v>
+      </c>
+      <c r="N88" s="3">
+        <v>6.6749999999999996E-6</v>
+      </c>
+      <c r="O88">
+        <v>0.31879999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
+        <v>200</v>
+      </c>
+      <c r="B89">
+        <v>0.2492</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2.0150000000000002E-9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2.7230000000000001E-4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3.8160000000000004E-6</v>
+      </c>
+      <c r="G89">
+        <v>0.2702</v>
+      </c>
+      <c r="I89">
+        <v>200</v>
+      </c>
+      <c r="J89">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="K89" s="3">
+        <v>3.201E-9</v>
+      </c>
+      <c r="L89" s="3">
+        <v>106600</v>
+      </c>
+      <c r="M89" s="3">
+        <v>3.412E-4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>6.4779999999999996E-6</v>
+      </c>
+      <c r="O89">
+        <v>0.30280000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>100</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2.2579999999999999E-9</v>
+      </c>
+      <c r="D90" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3.234E-4</v>
+      </c>
+      <c r="F90" s="3">
+        <v>4.0799999999999999E-6</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="K90" s="3">
+        <v>3.368E-9</v>
+      </c>
+      <c r="L90" s="3">
+        <v>113100</v>
+      </c>
+      <c r="M90" s="3">
+        <v>3.8079999999999999E-4</v>
+      </c>
+      <c r="N90" s="3">
+        <v>7.2989999999999999E-6</v>
+      </c>
+      <c r="O90">
+        <v>0.30530000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>50</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.2293</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.885E-9</v>
+      </c>
+      <c r="D91" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2.8449999999999998E-4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>4.2470000000000002E-6</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.2472</v>
+      </c>
+      <c r="I91">
+        <v>50</v>
+      </c>
+      <c r="J91">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="K91" s="3">
+        <v>3.0399999999999998E-9</v>
+      </c>
+      <c r="L91" s="3">
+        <v>96820</v>
+      </c>
+      <c r="M91" s="3">
+        <v>2.943E-4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>8.011E-6</v>
+      </c>
+      <c r="O91">
+        <v>0.32540000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>25</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.9789999999999999E-9</v>
+      </c>
+      <c r="D92" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E92" s="3">
+        <v>3.21E-4</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5.0309999999999998E-6</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="I92">
+        <v>25</v>
+      </c>
+      <c r="J92">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2.5899999999999999E-9</v>
+      </c>
+      <c r="L92" s="3">
+        <v>133500</v>
+      </c>
+      <c r="M92" s="3">
+        <v>3.458E-4</v>
+      </c>
+      <c r="N92" s="3">
+        <v>9.1619999999999997E-6</v>
+      </c>
+      <c r="O92">
+        <v>0.28320000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>12.5</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2.082E-9</v>
+      </c>
+      <c r="D93" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.3990000000000002E-4</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5.2639999999999999E-6</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.2278</v>
+      </c>
+      <c r="I93">
+        <v>12.5</v>
+      </c>
+      <c r="J93">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="K93" s="3">
+        <v>2.462E-9</v>
+      </c>
+      <c r="L93" s="3">
+        <v>146200</v>
+      </c>
+      <c r="M93" s="3">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="N93" s="3">
+        <v>9.0909999999999999E-6</v>
+      </c>
+      <c r="O93">
+        <v>0.23930000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>6.25</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.1467</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.846E-9</v>
+      </c>
+      <c r="D94" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2.9970000000000002E-4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>6.3539999999999996E-6</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>6.25</v>
+      </c>
+      <c r="J94">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2.334E-9</v>
+      </c>
+      <c r="L94" s="3">
+        <v>146100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>3.4099999999999999E-4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1.393E-5</v>
+      </c>
+      <c r="O94">
+        <v>0.2049</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>400</v>
       </c>
-      <c r="B89">
-        <v>0.47520000000000001</v>
-      </c>
-      <c r="C89" s="3">
-        <v>3.2929999999999998E-8</v>
-      </c>
-      <c r="D89" s="3">
-        <v>52190</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1.719E-3</v>
-      </c>
-      <c r="F89" s="3">
-        <v>6.173E-6</v>
-      </c>
-      <c r="G89">
-        <v>0.52439999999999998</v>
-      </c>
-      <c r="I89">
+      <c r="B95" s="3">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4.5960000000000003E-9</v>
+      </c>
+      <c r="D95" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E95" s="3">
+        <v>5.8529999999999997E-4</v>
+      </c>
+      <c r="F95" s="3">
+        <v>6.5470000000000002E-6</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="I95">
         <v>400</v>
       </c>
-      <c r="J89">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="K89" s="3">
-        <v>2.9110000000000001E-8</v>
-      </c>
-      <c r="L89" s="3">
-        <v>87720</v>
-      </c>
-      <c r="M89" s="3">
-        <v>2.5539999999999998E-3</v>
-      </c>
-      <c r="N89" s="3">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="O89">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>160</v>
-      </c>
-      <c r="B90">
-        <v>0.37580000000000002</v>
-      </c>
-      <c r="C90" s="3">
-        <v>2.398E-8</v>
-      </c>
-      <c r="D90" s="3">
-        <v>69720</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1.6720000000000001E-3</v>
-      </c>
-      <c r="F90" s="3">
-        <v>6.4320000000000004E-6</v>
-      </c>
-      <c r="G90">
-        <v>0.43809999999999999</v>
-      </c>
-      <c r="I90">
+      <c r="J95">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3.1500000000000001E-9</v>
+      </c>
+      <c r="L95" s="3">
+        <v>128600</v>
+      </c>
+      <c r="M95" s="3">
+        <v>4.0519999999999998E-4</v>
+      </c>
+      <c r="N95" s="3">
+        <v>5.8209999999999998E-6</v>
+      </c>
+      <c r="O95">
+        <v>0.28410000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>200</v>
       </c>
-      <c r="J90">
-        <v>0.1817</v>
-      </c>
-      <c r="K90" s="3">
-        <v>1.6899999999999999E-8</v>
-      </c>
-      <c r="L90" s="3">
-        <v>155100</v>
-      </c>
-      <c r="M90" s="3">
-        <v>2.6210000000000001E-3</v>
-      </c>
-      <c r="N90" s="3">
-        <v>1.3210000000000001E-5</v>
-      </c>
-      <c r="O90">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>64</v>
-      </c>
-      <c r="B91">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1.8580000000000002E-8</v>
-      </c>
-      <c r="D91" s="3">
-        <v>90090</v>
-      </c>
-      <c r="E91" s="3">
-        <v>1.6739999999999999E-3</v>
-      </c>
-      <c r="F91" s="3">
-        <v>7.6299999999999998E-6</v>
-      </c>
-      <c r="G91">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="I91">
+      <c r="B96" s="3">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3.2780000000000001E-9</v>
+      </c>
+      <c r="D96" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4.4979999999999998E-4</v>
+      </c>
+      <c r="F96" s="3">
+        <v>4.1849999999999997E-6</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="I96">
+        <v>200</v>
+      </c>
+      <c r="J96">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2.9199999999999998E-9</v>
+      </c>
+      <c r="L96" s="3">
+        <v>138500</v>
+      </c>
+      <c r="M96" s="3">
+        <v>4.0440000000000002E-4</v>
+      </c>
+      <c r="N96" s="3">
+        <v>5.6239999999999999E-6</v>
+      </c>
+      <c r="O96">
+        <v>0.28149999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>100</v>
       </c>
-      <c r="J91">
-        <v>0.19420000000000001</v>
-      </c>
-      <c r="K91" s="3">
-        <v>1.8320000000000001E-8</v>
-      </c>
-      <c r="L91" s="3">
-        <v>136300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>2.4979999999999998E-3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>1.362E-5</v>
-      </c>
-      <c r="O91">
-        <v>0.24249999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>25.6</v>
-      </c>
-      <c r="B92">
-        <v>0.1711</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1.414E-8</v>
-      </c>
-      <c r="D92" s="3">
-        <v>113900</v>
-      </c>
-      <c r="E92" s="3">
-        <v>1.611E-3</v>
-      </c>
-      <c r="F92" s="3">
-        <v>9.7669999999999998E-6</v>
-      </c>
-      <c r="G92">
-        <v>0.26540000000000002</v>
-      </c>
-      <c r="I92">
+      <c r="B97" s="3">
+        <v>0.2331</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2.4880000000000001E-9</v>
+      </c>
+      <c r="D97" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3.9859999999999999E-4</v>
+      </c>
+      <c r="F97" s="3">
+        <v>3.4599999999999999E-6</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>0.2364</v>
+      </c>
+      <c r="K97" s="3">
+        <v>2.7590000000000001E-9</v>
+      </c>
+      <c r="L97" s="3">
+        <v>146600</v>
+      </c>
+      <c r="M97" s="3">
+        <v>4.0450000000000002E-4</v>
+      </c>
+      <c r="N97" s="3">
+        <v>4.9300000000000002E-6</v>
+      </c>
+      <c r="O97">
+        <v>0.25940000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>50</v>
       </c>
-      <c r="J92">
-        <v>0.1426</v>
-      </c>
-      <c r="K92" s="3">
-        <v>1.3809999999999999E-8</v>
-      </c>
-      <c r="L92" s="3">
-        <v>164300</v>
-      </c>
-      <c r="M92" s="3">
-        <v>2.2690000000000002E-3</v>
-      </c>
-      <c r="N92" s="3">
-        <v>1.504E-5</v>
-      </c>
-      <c r="O92">
-        <v>0.19359999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B93">
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="C93" s="3">
-        <v>9.2959999999999993E-9</v>
-      </c>
-      <c r="D93" s="3">
-        <v>156900</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1.4580000000000001E-3</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1.4430000000000001E-5</v>
-      </c>
-      <c r="G93">
-        <v>0.1867</v>
-      </c>
-      <c r="I93">
+      <c r="B98" s="3">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2.4749999999999998E-9</v>
+      </c>
+      <c r="D98" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E98" s="3">
+        <v>4.147E-4</v>
+      </c>
+      <c r="F98" s="3">
+        <v>4.0860000000000004E-6</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98">
+        <v>0.2334</v>
+      </c>
+      <c r="K98" s="3">
+        <v>2.3130000000000002E-9</v>
+      </c>
+      <c r="L98" s="3">
+        <v>148300</v>
+      </c>
+      <c r="M98" s="3">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="N98" s="3">
+        <v>6.9439999999999999E-6</v>
+      </c>
+      <c r="O98">
+        <v>0.25419999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>25</v>
       </c>
-      <c r="J93">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="K93" s="3">
-        <v>1.146E-8</v>
-      </c>
-      <c r="L93" s="3">
-        <v>225500</v>
-      </c>
-      <c r="M93" s="3">
-        <v>2.5839999999999999E-3</v>
-      </c>
-      <c r="N93" s="3">
-        <v>1.6379999999999999E-5</v>
-      </c>
-      <c r="O93">
-        <v>0.14460000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B94">
-        <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="C94" s="3">
-        <v>3.182E-9</v>
-      </c>
-      <c r="D94" s="3">
-        <v>365100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1.1620000000000001E-3</v>
-      </c>
-      <c r="F94" s="3">
-        <v>3.1569999999999998E-5</v>
-      </c>
-      <c r="G94">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="I94">
+      <c r="B99" s="3">
+        <v>0.2288</v>
+      </c>
+      <c r="C99" s="3">
+        <v>3.1490000000000002E-9</v>
+      </c>
+      <c r="D99" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E99" s="3">
+        <v>4.9120000000000001E-4</v>
+      </c>
+      <c r="F99" s="3">
+        <v>3.8809999999999998E-6</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.2626</v>
+      </c>
+      <c r="I99">
+        <v>25</v>
+      </c>
+      <c r="J99">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="K99" s="3">
+        <v>2.833E-9</v>
+      </c>
+      <c r="L99" s="3">
+        <v>147000</v>
+      </c>
+      <c r="M99" s="3">
+        <v>4.1629999999999998E-4</v>
+      </c>
+      <c r="N99" s="3">
+        <v>6.6120000000000004E-6</v>
+      </c>
+      <c r="O99">
+        <v>0.2656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>12.5</v>
       </c>
-      <c r="J94">
-        <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="K94" s="3">
-        <v>3.0969999999999999E-8</v>
-      </c>
-      <c r="L94" s="3">
-        <v>107700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>3.3340000000000002E-3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>1.8839999999999999E-5</v>
-      </c>
-      <c r="O94">
-        <v>0.2339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1.64</v>
-      </c>
-      <c r="B95">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>4</v>
-      </c>
-      <c r="G95" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95">
+      <c r="B100" s="3">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2.067E-9</v>
+      </c>
+      <c r="D100" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3.8420000000000001E-4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="I100">
+        <v>12.5</v>
+      </c>
+      <c r="J100">
+        <v>0.1963</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2.4870000000000002E-9</v>
+      </c>
+      <c r="L100" s="3">
+        <v>158900</v>
+      </c>
+      <c r="M100" s="3">
+        <v>3.9520000000000001E-4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>8.3690000000000007E-6</v>
+      </c>
+      <c r="O100">
+        <v>0.2354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>6.25</v>
       </c>
-      <c r="J95">
-        <v>1.09E-2</v>
-      </c>
-      <c r="K95" s="3">
-        <v>1.3910000000000001E-9</v>
-      </c>
-      <c r="L95" s="3">
-        <v>1488000</v>
-      </c>
-      <c r="M95" s="3">
-        <v>2.0699999999999998E-3</v>
-      </c>
-      <c r="N95" s="3">
-        <v>1.963E-5</v>
-      </c>
-      <c r="O95">
-        <v>2.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B101" s="3">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3.2259999999999998E-9</v>
+      </c>
+      <c r="D101" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5.3419999999999997E-4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>5.3249999999999998E-6</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="I101">
+        <v>6.25</v>
+      </c>
+      <c r="J101">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2.7729999999999998E-9</v>
+      </c>
+      <c r="L101" s="3">
+        <v>144400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>4.0030000000000003E-4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1.0020000000000001E-5</v>
+      </c>
+      <c r="O101">
+        <v>0.24529999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="3">
+        <f>AVERAGE(C88:C93,C95:C100)*10^9</f>
+        <v>2.6211666666666669</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" ref="D103:E103" si="8">AVERAGE(D88:D93,D95:D100)*10^9</f>
+        <v>150583333333333.34</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="8"/>
+        <v>386733.33333333337</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="3">
+        <f>AVERAGE(K88:K93,K95:K100)*10^9</f>
+        <v>3.0090000000000003</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" ref="L103:M103" si="9">AVERAGE(L88:L93,L95:L100)*10^9</f>
+        <v>129931666666666.67</v>
+      </c>
+      <c r="M103" s="3">
+        <f t="shared" si="9"/>
+        <v>380383.33333333337</v>
+      </c>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>43837</v>
+      </c>
+      <c r="I106" s="2">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>2</v>
+      </c>
+      <c r="K107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L107" t="s">
+        <v>9</v>
+      </c>
+      <c r="M107" t="s">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>6</v>
+      </c>
+      <c r="O107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>400</v>
       </c>
-      <c r="B96">
-        <v>0.48060000000000003</v>
-      </c>
-      <c r="C96" s="3">
-        <v>3.899E-8</v>
-      </c>
-      <c r="D96" s="3">
-        <v>53270</v>
-      </c>
-      <c r="E96" s="3">
-        <v>2.0769999999999999E-3</v>
-      </c>
-      <c r="F96" s="3">
-        <v>7.4909999999999999E-6</v>
-      </c>
-      <c r="G96">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="K96" t="s">
-        <v>4</v>
-      </c>
-      <c r="L96" t="s">
-        <v>4</v>
-      </c>
-      <c r="M96" t="s">
-        <v>4</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>160</v>
-      </c>
-      <c r="B97">
-        <v>0.38450000000000001</v>
-      </c>
-      <c r="C97" s="3">
-        <v>3.1809999999999998E-8</v>
-      </c>
-      <c r="D97" s="3">
-        <v>63570</v>
-      </c>
-      <c r="E97" s="3">
-        <v>2.0219999999999999E-3</v>
-      </c>
-      <c r="F97" s="3">
-        <v>7.5669999999999997E-6</v>
-      </c>
-      <c r="G97">
-        <v>0.46260000000000001</v>
-      </c>
-      <c r="I97">
+      <c r="B108">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="C108" s="3">
+        <v>3.9860000000000001E-9</v>
+      </c>
+      <c r="D108" s="3">
+        <v>90460</v>
+      </c>
+      <c r="E108" s="3">
+        <v>3.6059999999999998E-4</v>
+      </c>
+      <c r="F108" s="3">
+        <v>4.1150000000000004E-6</v>
+      </c>
+      <c r="G108">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="I108">
+        <v>400</v>
+      </c>
+      <c r="J108">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="K108" s="3">
+        <v>4.2549999999999999E-9</v>
+      </c>
+      <c r="L108" s="3">
+        <v>102000</v>
+      </c>
+      <c r="M108" s="3">
+        <v>4.3399999999999998E-4</v>
+      </c>
+      <c r="N108" s="3">
+        <v>3.8249999999999998E-6</v>
+      </c>
+      <c r="O108">
+        <v>0.3327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>200</v>
       </c>
-      <c r="J97">
-        <v>0.23530000000000001</v>
-      </c>
-      <c r="K97" s="3">
-        <v>2.4150000000000001E-8</v>
-      </c>
-      <c r="L97" s="3">
-        <v>111500</v>
-      </c>
-      <c r="M97" s="3">
-        <v>2.6909999999999998E-3</v>
-      </c>
-      <c r="N97" s="3">
-        <v>1.3370000000000001E-5</v>
-      </c>
-      <c r="O97">
-        <v>0.2757</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>64</v>
-      </c>
-      <c r="B98">
-        <v>0.27550000000000002</v>
-      </c>
-      <c r="C98" s="3">
-        <v>2.7780000000000001E-8</v>
-      </c>
-      <c r="D98" s="3">
-        <v>75730</v>
-      </c>
-      <c r="E98" s="3">
-        <v>2.104E-3</v>
-      </c>
-      <c r="F98" s="3">
-        <v>8.4940000000000003E-6</v>
-      </c>
-      <c r="G98">
-        <v>0.39460000000000001</v>
-      </c>
-      <c r="I98">
+      <c r="B109">
+        <v>0.2475</v>
+      </c>
+      <c r="C109" s="3">
+        <v>3.3980000000000001E-9</v>
+      </c>
+      <c r="D109" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3.9550000000000002E-4</v>
+      </c>
+      <c r="F109" s="3">
+        <v>3.281E-6</v>
+      </c>
+      <c r="G109">
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="I109">
+        <v>200</v>
+      </c>
+      <c r="J109">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="K109" s="3">
+        <v>3.7529999999999998E-9</v>
+      </c>
+      <c r="L109" s="3">
+        <v>112700</v>
+      </c>
+      <c r="M109" s="3">
+        <v>4.2309999999999998E-4</v>
+      </c>
+      <c r="N109" s="3">
+        <v>3.3359999999999999E-6</v>
+      </c>
+      <c r="O109">
+        <v>0.31030000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>100</v>
       </c>
-      <c r="J98">
-        <v>0.1676</v>
-      </c>
-      <c r="K98" s="3">
-        <v>1.7059999999999999E-8</v>
-      </c>
-      <c r="L98" s="3">
-        <v>149100</v>
-      </c>
-      <c r="M98" s="3">
-        <v>2.545E-3</v>
-      </c>
-      <c r="N98" s="3">
-        <v>1.366E-5</v>
-      </c>
-      <c r="O98">
-        <v>0.20849999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>25.6</v>
-      </c>
-      <c r="B99">
-        <v>0.1734</v>
-      </c>
-      <c r="C99" s="3">
-        <v>2.2139999999999998E-8</v>
-      </c>
-      <c r="D99" s="3">
-        <v>92350</v>
-      </c>
-      <c r="E99" s="3">
-        <v>2.0439999999999998E-3</v>
-      </c>
-      <c r="F99" s="3">
-        <v>9.1190000000000003E-6</v>
-      </c>
-      <c r="G99">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="I99">
-        <v>50</v>
-      </c>
-      <c r="J99">
-        <v>0.12139999999999999</v>
-      </c>
-      <c r="K99" s="3">
-        <v>1.315E-8</v>
-      </c>
-      <c r="L99" s="3">
-        <v>193100</v>
-      </c>
-      <c r="M99" s="3">
-        <v>2.5400000000000002E-3</v>
-      </c>
-      <c r="N99" s="3">
-        <v>1.394E-5</v>
-      </c>
-      <c r="O99">
-        <v>0.16309999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B100">
-        <v>0.10580000000000001</v>
-      </c>
-      <c r="C100" s="3">
-        <v>2.5410000000000001E-8</v>
-      </c>
-      <c r="D100" s="3">
-        <v>76560</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1.9449999999999999E-3</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1.3370000000000001E-5</v>
-      </c>
-      <c r="G100">
-        <v>0.36370000000000002</v>
-      </c>
-      <c r="I100">
-        <v>25</v>
-      </c>
-      <c r="J100">
-        <v>9.9299999999999999E-2</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1.373E-8</v>
-      </c>
-      <c r="L100" s="3">
-        <v>183500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>2.5200000000000001E-3</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1.465E-5</v>
-      </c>
-      <c r="O100">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B101">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1.851E-3</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2.6080000000000001E-5</v>
-      </c>
-      <c r="G101" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101">
-        <v>12.5</v>
-      </c>
-      <c r="J101">
-        <v>7.0599999999999996E-2</v>
-      </c>
-      <c r="K101" s="3">
-        <v>3.3379999999999998E-8</v>
-      </c>
-      <c r="L101" s="3">
-        <v>99180</v>
-      </c>
-      <c r="M101" s="3">
-        <v>3.3110000000000001E-3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>1.982E-5</v>
-      </c>
-      <c r="O101">
-        <v>0.2515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1.64</v>
-      </c>
-      <c r="B102">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1.655E-3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>5.6969999999999998E-5</v>
-      </c>
-      <c r="G102" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102">
-        <v>6.25</v>
-      </c>
-      <c r="J102">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="K102" s="3">
-        <v>1.246E-8</v>
-      </c>
-      <c r="L102" s="3">
-        <v>219300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>2.7330000000000002E-3</v>
-      </c>
-      <c r="N102" s="3">
-        <v>3.0349999999999999E-5</v>
-      </c>
-      <c r="O102">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="3">
-        <f>AVERAGE(C89:C93,C96:C100)*10^9</f>
-        <v>24.505600000000001</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" ref="D104:E104" si="8">AVERAGE(D89:D93,D96:D100)*10^9</f>
-        <v>84428000000000</v>
-      </c>
-      <c r="E104" s="3">
-        <f t="shared" si="8"/>
-        <v>1832599.9999999995</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="J104" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" s="3">
-        <f>AVERAGE(K89:K94,K97:K101)*10^9</f>
-        <v>20.185454545454544</v>
-      </c>
-      <c r="L104" s="3">
-        <f t="shared" ref="L104:M104" si="9">AVERAGE(L89:L94,L97:L101)*10^9</f>
-        <v>146636363636363.66</v>
-      </c>
-      <c r="M104" s="3">
-        <f t="shared" si="9"/>
-        <v>2678818.1818181821</v>
-      </c>
-      <c r="O104" s="3"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>44176</v>
-      </c>
-      <c r="I107" s="2">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" t="s">
-        <v>7</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1</v>
-      </c>
-      <c r="J109" t="s">
-        <v>2</v>
-      </c>
-      <c r="K109" t="s">
-        <v>3</v>
-      </c>
-      <c r="L109" t="s">
-        <v>9</v>
-      </c>
-      <c r="M109" t="s">
-        <v>5</v>
-      </c>
-      <c r="N109" t="s">
-        <v>6</v>
-      </c>
-      <c r="O109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>400</v>
-      </c>
       <c r="B110">
-        <v>0.11</v>
+        <v>0.2485</v>
       </c>
       <c r="C110" s="3">
-        <v>1.7560000000000001E-7</v>
+        <v>3.8929999999999997E-9</v>
       </c>
       <c r="D110" s="3">
-        <v>95260</v>
+        <v>122100</v>
       </c>
       <c r="E110" s="3">
-        <v>1.6719999999999999E-2</v>
+        <v>4.7550000000000001E-4</v>
       </c>
       <c r="F110" s="3">
-        <v>1.994E-4</v>
+        <v>2.8890000000000002E-6</v>
       </c>
       <c r="G110">
-        <v>0.16980000000000001</v>
+        <v>0.26939999999999997</v>
       </c>
       <c r="I110">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J110">
-        <v>0.1111</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="K110" s="3">
-        <v>1.9110000000000001E-7</v>
+        <v>3.7019999999999998E-9</v>
       </c>
       <c r="L110" s="3">
-        <v>97620</v>
+        <v>117200</v>
       </c>
       <c r="M110" s="3">
-        <v>1.866E-2</v>
+        <v>4.3379999999999997E-4</v>
       </c>
       <c r="N110" s="3">
-        <v>2.2919999999999999E-4</v>
+        <v>3.2880000000000001E-6</v>
       </c>
       <c r="O110">
-        <v>0.17649999999999999</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B111">
-        <v>6.7299999999999999E-2</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="C111" s="3">
-        <v>1.2840000000000001E-7</v>
+        <v>3.6519999999999998E-9</v>
       </c>
       <c r="D111" s="3">
-        <v>131200</v>
+        <v>120300</v>
       </c>
       <c r="E111" s="3">
-        <v>1.6840000000000001E-2</v>
+        <v>4.392E-4</v>
       </c>
       <c r="F111" s="3">
-        <v>2.198E-4</v>
+        <v>3.2119999999999999E-6</v>
       </c>
       <c r="G111">
-        <v>0.12909999999999999</v>
+        <v>0.26889999999999997</v>
       </c>
       <c r="I111">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J111">
-        <v>6.3500000000000001E-2</v>
+        <v>0.29010000000000002</v>
       </c>
       <c r="K111" s="3">
-        <v>1.3790000000000001E-7</v>
+        <v>3.693E-9</v>
       </c>
       <c r="L111" s="3">
-        <v>134200</v>
+        <v>114900</v>
       </c>
       <c r="M111" s="3">
-        <v>1.8509999999999999E-2</v>
+        <v>4.2430000000000001E-4</v>
       </c>
       <c r="N111" s="3">
-        <v>2.7579999999999998E-4</v>
+        <v>3.8709999999999999E-6</v>
       </c>
       <c r="O111">
-        <v>0.12280000000000001</v>
+        <v>0.31130000000000002</v>
       </c>
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B112">
-        <v>4.41E-2</v>
+        <v>0.2354</v>
       </c>
       <c r="C112" s="3">
-        <v>9.6239999999999994E-8</v>
+        <v>3.414E-9</v>
       </c>
       <c r="D112" s="3">
-        <v>168100</v>
+        <v>127300</v>
       </c>
       <c r="E112" s="3">
-        <v>1.618E-2</v>
+        <v>4.348E-4</v>
       </c>
       <c r="F112" s="3">
-        <v>2.745E-4</v>
+        <v>3.1350000000000001E-6</v>
       </c>
       <c r="G112">
-        <v>8.4500000000000006E-2</v>
+        <v>0.26719999999999999</v>
       </c>
       <c r="I112">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J112">
-        <v>4.1099999999999998E-2</v>
+        <v>0.28339999999999999</v>
       </c>
       <c r="K112" s="3">
-        <v>1.1759999999999999E-7</v>
+        <v>4.2109999999999996E-9</v>
       </c>
       <c r="L112" s="3">
-        <v>169700</v>
+        <v>118900</v>
       </c>
       <c r="M112" s="3">
-        <v>1.9959999999999999E-2</v>
+        <v>5.0080000000000003E-4</v>
       </c>
       <c r="N112" s="3">
-        <v>3.7429999999999999E-4</v>
+        <v>4.1799999999999998E-6</v>
       </c>
       <c r="O112">
-        <v>9.9599999999999994E-2</v>
+        <v>0.32319999999999999</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="B113">
-        <v>2.24E-2</v>
+        <v>0.1784</v>
       </c>
       <c r="C113" s="3">
-        <v>9.1759999999999996E-8</v>
+        <v>4.0270000000000003E-9</v>
       </c>
       <c r="D113" s="3">
-        <v>201800</v>
+        <v>132100</v>
       </c>
       <c r="E113" s="3">
-        <v>1.8509999999999999E-2</v>
+        <v>5.3200000000000003E-4</v>
       </c>
       <c r="F113" s="3">
-        <v>4.5150000000000002E-4</v>
+        <v>4.9949999999999996E-6</v>
       </c>
       <c r="G113">
-        <v>6.7199999999999996E-2</v>
+        <v>0.2351</v>
       </c>
       <c r="I113">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="J113">
-        <v>1.9300000000000001E-2</v>
+        <v>0.23330000000000001</v>
       </c>
       <c r="K113" s="3">
-        <v>3.5679999999999999E-8</v>
+        <v>3.5589999999999998E-9</v>
       </c>
       <c r="L113" s="3">
-        <v>435900</v>
+        <v>125100</v>
       </c>
       <c r="M113" s="3">
-        <v>1.555E-2</v>
+        <v>4.4509999999999998E-4</v>
       </c>
       <c r="N113" s="3">
-        <v>4.6010000000000002E-4</v>
+        <v>4.6020000000000002E-6</v>
       </c>
       <c r="O113">
-        <v>4.1300000000000003E-2</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="B114">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" t="s">
-        <v>4</v>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="C114" s="3">
+        <v>2.4070000000000001E-9</v>
+      </c>
+      <c r="D114" s="3">
+        <v>152000</v>
       </c>
       <c r="E114" s="3">
-        <v>2.3009999999999999E-2</v>
+        <v>3.658E-4</v>
       </c>
       <c r="F114" s="3">
-        <v>8.9360000000000004E-4</v>
-      </c>
-      <c r="G114" t="s">
-        <v>4</v>
+        <v>6.195E-6</v>
+      </c>
+      <c r="G114">
+        <v>0.2039</v>
       </c>
       <c r="I114">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="J114">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="K114" t="s">
-        <v>4</v>
-      </c>
-      <c r="L114" t="s">
-        <v>4</v>
+        <v>0.153</v>
+      </c>
+      <c r="K114" s="3">
+        <v>2.7970000000000002E-9</v>
+      </c>
+      <c r="L114" s="3">
+        <v>123400</v>
       </c>
       <c r="M114" s="3">
-        <v>2.9950000000000001E-2</v>
+        <v>3.4519999999999999E-4</v>
       </c>
       <c r="N114" s="3">
-        <v>2.2759999999999998E-3</v>
-      </c>
-      <c r="O114" t="s">
-        <v>4</v>
+        <v>7.7640000000000005E-6</v>
+      </c>
+      <c r="O114">
+        <v>0.23599999999999999</v>
       </c>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>12.5</v>
+        <v>400</v>
       </c>
       <c r="B115">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-      <c r="C115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
+        <v>0.3256</v>
+      </c>
+      <c r="C115" s="3">
+        <v>6.6379999999999996E-9</v>
+      </c>
+      <c r="D115" s="3">
+        <v>79970</v>
       </c>
       <c r="E115" s="3">
-        <v>1.6639999999999999E-2</v>
+        <v>5.308E-4</v>
       </c>
       <c r="F115" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G115" t="s">
-        <v>4</v>
+        <v>3.4659999999999999E-6</v>
+      </c>
+      <c r="G115">
+        <v>0.33600000000000002</v>
       </c>
       <c r="I115">
-        <v>12.5</v>
+        <v>400</v>
       </c>
       <c r="J115">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="K115" t="s">
-        <v>4</v>
-      </c>
-      <c r="L115" t="s">
-        <v>4</v>
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="K115" s="3">
+        <v>4.7740000000000003E-9</v>
+      </c>
+      <c r="L115" s="3">
+        <v>101500</v>
       </c>
       <c r="M115" s="3">
-        <v>5.4820000000000001E-2</v>
+        <v>4.8460000000000002E-4</v>
       </c>
       <c r="N115" s="3">
-        <v>1.3860000000000001E-2</v>
-      </c>
-      <c r="O115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3.0350000000000002E-6</v>
+      </c>
+      <c r="O115">
+        <v>0.34089999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>6.25</v>
+        <v>200</v>
       </c>
       <c r="B116">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C116" s="3">
+        <v>4.5859999999999997E-9</v>
+      </c>
+      <c r="D116" s="3">
+        <v>105400</v>
       </c>
       <c r="E116" s="3">
-        <v>3.5810000000000002E-2</v>
+        <v>4.8339999999999999E-4</v>
       </c>
       <c r="F116" s="3">
-        <v>7.2430000000000003E-3</v>
-      </c>
-      <c r="G116" t="s">
-        <v>4</v>
+        <v>2.898E-6</v>
+      </c>
+      <c r="G116">
+        <v>0.28920000000000001</v>
       </c>
       <c r="I116">
-        <v>6.25</v>
+        <v>200</v>
       </c>
       <c r="J116">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="K116" t="s">
-        <v>4</v>
-      </c>
-      <c r="L116" t="s">
-        <v>4</v>
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="K116" s="3">
+        <v>4.5859999999999997E-9</v>
+      </c>
+      <c r="L116" s="3">
+        <v>104100</v>
       </c>
       <c r="M116" s="3">
-        <v>4.3509999999999998E-3</v>
+        <v>4.772E-4</v>
       </c>
       <c r="N116" s="3">
-        <v>1.9139999999999999E-3</v>
-      </c>
-      <c r="O116" t="s">
-        <v>4</v>
+        <v>2.892E-6</v>
+      </c>
+      <c r="O116">
+        <v>0.33889999999999998</v>
       </c>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="B117">
-        <v>0.10929999999999999</v>
+        <v>0.26569999999999999</v>
       </c>
       <c r="C117" s="3">
-        <v>1.9859999999999999E-7</v>
+        <v>4.1549999999999998E-9</v>
       </c>
       <c r="D117" s="3">
-        <v>89720</v>
+        <v>108500</v>
       </c>
       <c r="E117" s="3">
-        <v>1.7809999999999999E-2</v>
+        <v>4.5090000000000001E-4</v>
       </c>
       <c r="F117" s="3">
-        <v>2.1599999999999999E-4</v>
+        <v>2.7860000000000001E-6</v>
       </c>
       <c r="G117">
-        <v>0.1817</v>
+        <v>0.27989999999999998</v>
       </c>
       <c r="I117">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J117">
-        <v>0.1268</v>
+        <v>0.2893</v>
       </c>
       <c r="K117" s="3">
-        <v>2.1500000000000001E-7</v>
+        <v>3.8639999999999999E-9</v>
       </c>
       <c r="L117" s="3">
-        <v>83780</v>
+        <v>116600</v>
       </c>
       <c r="M117" s="3">
-        <v>1.8010000000000002E-2</v>
+        <v>4.504E-4</v>
       </c>
       <c r="N117" s="3">
-        <v>2.541E-4</v>
+        <v>3.05E-6</v>
       </c>
       <c r="O117">
-        <v>0.19470000000000001</v>
+        <v>0.30859999999999999</v>
       </c>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B118">
-        <v>7.6700000000000004E-2</v>
+        <v>0.2419</v>
       </c>
       <c r="C118" s="3">
-        <v>1.3829999999999999E-7</v>
+        <v>3.8309999999999997E-9</v>
       </c>
       <c r="D118" s="3">
-        <v>120700</v>
+        <v>118400</v>
       </c>
       <c r="E118" s="3">
-        <v>1.669E-2</v>
+        <v>4.5370000000000002E-4</v>
       </c>
       <c r="F118" s="3">
-        <v>2.1939999999999999E-4</v>
+        <v>2.5940000000000001E-6</v>
       </c>
       <c r="G118">
-        <v>0.14230000000000001</v>
+        <v>0.26079999999999998</v>
       </c>
       <c r="I118">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J118">
-        <v>7.85E-2</v>
+        <v>0.2671</v>
       </c>
       <c r="K118" s="3">
-        <v>1.3120000000000001E-7</v>
+        <v>3.6830000000000002E-9</v>
       </c>
       <c r="L118" s="3">
-        <v>135200</v>
+        <v>117400</v>
       </c>
       <c r="M118" s="3">
-        <v>1.7739999999999999E-2</v>
+        <v>4.3239999999999999E-4</v>
       </c>
       <c r="N118" s="3">
-        <v>2.9280000000000002E-4</v>
+        <v>3.5020000000000001E-6</v>
       </c>
       <c r="O118">
-        <v>0.1321</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B119">
-        <v>3.0800000000000001E-2</v>
+        <v>0.2311</v>
       </c>
       <c r="C119" s="3">
-        <v>6.1290000000000002E-8</v>
+        <v>3.9519999999999996E-9</v>
       </c>
       <c r="D119" s="3">
-        <v>271000</v>
+        <v>121600</v>
       </c>
       <c r="E119" s="3">
-        <v>1.661E-2</v>
+        <v>4.8050000000000002E-4</v>
       </c>
       <c r="F119" s="3">
-        <v>3.7330000000000002E-4</v>
+        <v>2.9129999999999999E-6</v>
       </c>
       <c r="G119">
-        <v>6.8199999999999997E-2</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="I119">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J119">
-        <v>4.8300000000000003E-2</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="K119" s="3">
-        <v>8.3529999999999994E-8</v>
+        <v>3.6950000000000002E-9</v>
       </c>
       <c r="L119" s="3">
-        <v>208300</v>
+        <v>125800</v>
       </c>
       <c r="M119" s="3">
-        <v>1.7399999999999999E-2</v>
+        <v>4.6460000000000002E-4</v>
       </c>
       <c r="N119" s="3">
-        <v>3.7340000000000002E-4</v>
+        <v>3.9299999999999996E-6</v>
       </c>
       <c r="O119">
-        <v>8.72E-2</v>
+        <v>0.2989</v>
       </c>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="B120">
-        <v>2.9000000000000001E-2</v>
+        <v>0.20069999999999999</v>
       </c>
       <c r="C120" s="3">
-        <v>1.1619999999999999E-7</v>
+        <v>3.255E-9</v>
       </c>
       <c r="D120" s="3">
-        <v>138200</v>
+        <v>132700</v>
       </c>
       <c r="E120" s="3">
-        <v>1.6060000000000001E-2</v>
+        <v>4.3189999999999998E-4</v>
       </c>
       <c r="F120" s="3">
-        <v>4.7370000000000002E-4</v>
+        <v>3.467E-6</v>
       </c>
       <c r="G120">
-        <v>8.9700000000000002E-2</v>
+        <v>0.2505</v>
       </c>
       <c r="I120">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="J120">
-        <v>3.0499999999999999E-2</v>
+        <v>0.22420000000000001</v>
       </c>
       <c r="K120" s="3">
-        <v>3.6909999999999998E-8</v>
+        <v>3.317E-9</v>
       </c>
       <c r="L120" s="3">
-        <v>396900</v>
+        <v>136700</v>
       </c>
       <c r="M120" s="3">
-        <v>1.465E-2</v>
+        <v>4.5340000000000002E-4</v>
       </c>
       <c r="N120" s="3">
-        <v>4.8020000000000002E-4</v>
+        <v>4.6920000000000001E-6</v>
       </c>
       <c r="O120">
-        <v>5.1499999999999997E-2</v>
+        <v>0.28060000000000002</v>
       </c>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="B121">
-        <v>2.7799999999999998E-2</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="C121" s="3">
-        <v>4.5809999999999998E-8</v>
+        <v>3.1730000000000001E-9</v>
       </c>
       <c r="D121" s="3">
-        <v>266700</v>
+        <v>142700</v>
       </c>
       <c r="E121" s="3">
-        <v>1.222E-2</v>
+        <v>4.529E-4</v>
       </c>
       <c r="F121" s="3">
-        <v>4.7160000000000002E-4</v>
+        <v>4.2050000000000004E-6</v>
       </c>
       <c r="G121">
-        <v>5.79E-2</v>
+        <v>0.25369999999999998</v>
       </c>
       <c r="I121">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="J121">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="K121" t="s">
-        <v>4</v>
-      </c>
-      <c r="L121" t="s">
-        <v>4</v>
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="K121" s="3">
+        <v>3.6739999999999999E-9</v>
+      </c>
+      <c r="L121" s="3">
+        <v>140000</v>
       </c>
       <c r="M121" s="3">
-        <v>1.9019999999999999E-2</v>
+        <v>5.1429999999999998E-4</v>
       </c>
       <c r="N121" s="3">
-        <v>1.0859999999999999E-3</v>
-      </c>
-      <c r="O121" t="s">
-        <v>4</v>
+        <v>5.7300000000000002E-6</v>
+      </c>
+      <c r="O121">
+        <v>0.2928</v>
       </c>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>12.5</v>
-      </c>
-      <c r="B122">
-        <v>1.77E-2</v>
-      </c>
-      <c r="C122" s="3">
-        <v>5.997E-8</v>
-      </c>
-      <c r="D122" s="3">
-        <v>320800</v>
-      </c>
-      <c r="E122" s="3">
-        <v>1.924E-2</v>
-      </c>
-      <c r="F122" s="3">
-        <v>1.9469999999999999E-3</v>
-      </c>
-      <c r="G122">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="I122">
-        <v>12.5</v>
-      </c>
-      <c r="J122">
-        <v>1.47E-2</v>
-      </c>
-      <c r="K122" s="3">
-        <v>3.6339999999999999E-7</v>
-      </c>
-      <c r="L122" s="3">
-        <v>18680</v>
-      </c>
-      <c r="M122" s="3">
-        <v>6.7869999999999996E-3</v>
-      </c>
-      <c r="N122" s="3">
-        <v>8.9559999999999998E-4</v>
-      </c>
-      <c r="O122">
-        <v>0.26400000000000001</v>
-      </c>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.35">
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>6.25</v>
-      </c>
-      <c r="B123">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4</v>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="3">
+        <f>AVERAGE(C108:C113,C115:C120)*10^9</f>
+        <v>4.0655833333333327</v>
+      </c>
+      <c r="D123" s="3">
+        <f t="shared" ref="D123:E123" si="10">AVERAGE(D108:D113,D115:D120)*10^9</f>
+        <v>114602500000000</v>
       </c>
       <c r="E123" s="3">
-        <v>5.1360000000000003E-2</v>
-      </c>
-      <c r="F123" s="3">
-        <v>2.3040000000000001E-2</v>
-      </c>
-      <c r="G123" t="s">
-        <v>4</v>
-      </c>
-      <c r="I123">
-        <v>6.25</v>
-      </c>
-      <c r="J123">
-        <v>1.6400000000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>455733.33333333337</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="J123" t="s">
+        <v>15</v>
       </c>
       <c r="K123" s="3">
-        <v>6.7269999999999996E-9</v>
+        <f>AVERAGE(K108:K113,K115:K120)*10^9</f>
+        <v>3.9243333333333337</v>
       </c>
       <c r="L123" s="3">
-        <v>560600</v>
+        <f t="shared" ref="L123:M123" si="11">AVERAGE(L108:L113,L115:L120)*10^9</f>
+        <v>116075000000000</v>
       </c>
       <c r="M123" s="3">
-        <v>3.771E-3</v>
-      </c>
-      <c r="N123" s="3">
-        <v>1.542E-3</v>
-      </c>
-      <c r="O123">
-        <v>1.29E-2</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>451975</v>
+      </c>
+      <c r="O123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
@@ -4723,1470 +4766,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="3">
-        <f>AVERAGE(C110:C113,C117:C120)*10^9</f>
-        <v>125.79875</v>
-      </c>
-      <c r="D125" s="3">
-        <f t="shared" ref="D125:E125" si="10">AVERAGE(D110:D113,D117:D120)*10^9</f>
-        <v>151997500000000</v>
-      </c>
-      <c r="E125" s="3">
-        <f t="shared" si="10"/>
-        <v>16927499.999999996</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="J125" t="s">
-        <v>17</v>
-      </c>
-      <c r="K125" s="3">
-        <f>AVERAGE(K110:K113,K117:K120)*10^9</f>
-        <v>118.61499999999999</v>
-      </c>
-      <c r="L125" s="3">
-        <f>AVERAGE(L110:L113,L117:L120)*10^9</f>
-        <v>207700000000000</v>
-      </c>
-      <c r="M125" s="3">
-        <f t="shared" ref="L125:M125" si="11">AVERAGE(M110:M113,M117:M120)*10^9</f>
-        <v>17560000</v>
-      </c>
-      <c r="O125" s="3"/>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.35">
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
       <c r="W125" s="3"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="I128" s="2">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" t="s">
-        <v>7</v>
-      </c>
-      <c r="I129" t="s">
-        <v>1</v>
-      </c>
-      <c r="J129" t="s">
-        <v>2</v>
-      </c>
-      <c r="K129" t="s">
-        <v>3</v>
-      </c>
-      <c r="L129" t="s">
-        <v>9</v>
-      </c>
-      <c r="M129" t="s">
-        <v>5</v>
-      </c>
-      <c r="N129" t="s">
-        <v>6</v>
-      </c>
-      <c r="O129" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>400</v>
-      </c>
-      <c r="B130">
-        <v>0.2732</v>
-      </c>
-      <c r="C130" s="3">
-        <v>3.182E-9</v>
-      </c>
-      <c r="D130" s="3">
-        <v>118100</v>
-      </c>
-      <c r="E130" s="3">
-        <v>3.7589999999999998E-4</v>
-      </c>
-      <c r="F130" s="3">
-        <v>3.3799999999999998E-6</v>
-      </c>
-      <c r="G130">
-        <v>0.2918</v>
-      </c>
-      <c r="I130">
-        <v>400</v>
-      </c>
-      <c r="J130">
-        <v>0.31280000000000002</v>
-      </c>
-      <c r="K130" s="3">
-        <v>4.9849999999999996E-9</v>
-      </c>
-      <c r="L130" s="3">
-        <v>95060</v>
-      </c>
-      <c r="M130" s="3">
-        <v>4.7390000000000003E-4</v>
-      </c>
-      <c r="N130" s="3">
-        <v>6.6749999999999996E-6</v>
-      </c>
-      <c r="O130">
-        <v>0.31879999999999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>200</v>
-      </c>
-      <c r="B131">
-        <v>0.2492</v>
-      </c>
-      <c r="C131" s="3">
-        <v>2.0150000000000002E-9</v>
-      </c>
-      <c r="D131" s="3">
-        <v>135100</v>
-      </c>
-      <c r="E131" s="3">
-        <v>2.7230000000000001E-4</v>
-      </c>
-      <c r="F131" s="3">
-        <v>3.8160000000000004E-6</v>
-      </c>
-      <c r="G131">
-        <v>0.2702</v>
-      </c>
-      <c r="I131">
-        <v>200</v>
-      </c>
-      <c r="J131">
-        <v>0.29459999999999997</v>
-      </c>
-      <c r="K131" s="3">
-        <v>3.201E-9</v>
-      </c>
-      <c r="L131" s="3">
-        <v>106600</v>
-      </c>
-      <c r="M131" s="3">
-        <v>3.412E-4</v>
-      </c>
-      <c r="N131" s="3">
-        <v>6.4779999999999996E-6</v>
-      </c>
-      <c r="O131">
-        <v>0.30280000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>100</v>
-      </c>
-      <c r="B132" s="3">
-        <v>0.24929999999999999</v>
-      </c>
-      <c r="C132" s="3">
-        <v>2.2579999999999999E-9</v>
-      </c>
-      <c r="D132" s="3">
-        <v>143200</v>
-      </c>
-      <c r="E132" s="3">
-        <v>3.234E-4</v>
-      </c>
-      <c r="F132" s="3">
-        <v>4.0799999999999999E-6</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0.26860000000000001</v>
-      </c>
-      <c r="I132">
-        <v>100</v>
-      </c>
-      <c r="J132">
-        <v>0.29520000000000002</v>
-      </c>
-      <c r="K132" s="3">
-        <v>3.368E-9</v>
-      </c>
-      <c r="L132" s="3">
-        <v>113100</v>
-      </c>
-      <c r="M132" s="3">
-        <v>3.8079999999999999E-4</v>
-      </c>
-      <c r="N132" s="3">
-        <v>7.2989999999999999E-6</v>
-      </c>
-      <c r="O132">
-        <v>0.30530000000000002</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>50</v>
-      </c>
-      <c r="B133" s="3">
-        <v>0.2293</v>
-      </c>
-      <c r="C133" s="3">
-        <v>1.885E-9</v>
-      </c>
-      <c r="D133" s="3">
-        <v>150900</v>
-      </c>
-      <c r="E133" s="3">
-        <v>2.8449999999999998E-4</v>
-      </c>
-      <c r="F133" s="3">
-        <v>4.2470000000000002E-6</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0.2472</v>
-      </c>
-      <c r="I133">
-        <v>50</v>
-      </c>
-      <c r="J133">
-        <v>0.32629999999999998</v>
-      </c>
-      <c r="K133" s="3">
-        <v>3.0399999999999998E-9</v>
-      </c>
-      <c r="L133" s="3">
-        <v>96820</v>
-      </c>
-      <c r="M133" s="3">
-        <v>2.943E-4</v>
-      </c>
-      <c r="N133" s="3">
-        <v>8.011E-6</v>
-      </c>
-      <c r="O133">
-        <v>0.32540000000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>25</v>
-      </c>
-      <c r="B134" s="3">
-        <v>0.20219999999999999</v>
-      </c>
-      <c r="C134" s="3">
-        <v>1.9789999999999999E-9</v>
-      </c>
-      <c r="D134" s="3">
-        <v>162200</v>
-      </c>
-      <c r="E134" s="3">
-        <v>3.21E-4</v>
-      </c>
-      <c r="F134" s="3">
-        <v>5.0309999999999998E-6</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="I134">
-        <v>25</v>
-      </c>
-      <c r="J134">
-        <v>0.25940000000000002</v>
-      </c>
-      <c r="K134" s="3">
-        <v>2.5899999999999999E-9</v>
-      </c>
-      <c r="L134" s="3">
-        <v>133500</v>
-      </c>
-      <c r="M134" s="3">
-        <v>3.458E-4</v>
-      </c>
-      <c r="N134" s="3">
-        <v>9.1619999999999997E-6</v>
-      </c>
-      <c r="O134">
-        <v>0.28320000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>12.5</v>
-      </c>
-      <c r="B135" s="3">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="C135" s="3">
-        <v>2.082E-9</v>
-      </c>
-      <c r="D135" s="3">
-        <v>163200</v>
-      </c>
-      <c r="E135" s="3">
-        <v>3.3990000000000002E-4</v>
-      </c>
-      <c r="F135" s="3">
-        <v>5.2639999999999999E-6</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0.2278</v>
-      </c>
-      <c r="I135">
-        <v>12.5</v>
-      </c>
-      <c r="J135">
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="K135" s="3">
-        <v>2.462E-9</v>
-      </c>
-      <c r="L135" s="3">
-        <v>146200</v>
-      </c>
-      <c r="M135" s="3">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="N135" s="3">
-        <v>9.0909999999999999E-6</v>
-      </c>
-      <c r="O135">
-        <v>0.23930000000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>6.25</v>
-      </c>
-      <c r="B136" s="3">
-        <v>0.1467</v>
-      </c>
-      <c r="C136" s="3">
-        <v>1.846E-9</v>
-      </c>
-      <c r="D136" s="3">
-        <v>162400</v>
-      </c>
-      <c r="E136" s="3">
-        <v>2.9970000000000002E-4</v>
-      </c>
-      <c r="F136" s="3">
-        <v>6.3539999999999996E-6</v>
-      </c>
-      <c r="G136" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I136">
-        <v>6.25</v>
-      </c>
-      <c r="J136">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="K136" s="3">
-        <v>2.334E-9</v>
-      </c>
-      <c r="L136" s="3">
-        <v>146100</v>
-      </c>
-      <c r="M136" s="3">
-        <v>3.4099999999999999E-4</v>
-      </c>
-      <c r="N136" s="3">
-        <v>1.393E-5</v>
-      </c>
-      <c r="O136">
-        <v>0.2049</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>400</v>
-      </c>
-      <c r="B137" s="3">
-        <v>0.27750000000000002</v>
-      </c>
-      <c r="C137" s="3">
-        <v>4.5960000000000003E-9</v>
-      </c>
-      <c r="D137" s="3">
-        <v>127400</v>
-      </c>
-      <c r="E137" s="3">
-        <v>5.8529999999999997E-4</v>
-      </c>
-      <c r="F137" s="3">
-        <v>6.5470000000000002E-6</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0.30149999999999999</v>
-      </c>
-      <c r="I137">
-        <v>400</v>
-      </c>
-      <c r="J137">
-        <v>0.26369999999999999</v>
-      </c>
-      <c r="K137" s="3">
-        <v>3.1500000000000001E-9</v>
-      </c>
-      <c r="L137" s="3">
-        <v>128600</v>
-      </c>
-      <c r="M137" s="3">
-        <v>4.0519999999999998E-4</v>
-      </c>
-      <c r="N137" s="3">
-        <v>5.8209999999999998E-6</v>
-      </c>
-      <c r="O137">
-        <v>0.28410000000000002</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>200</v>
-      </c>
-      <c r="B138" s="3">
-        <v>0.26729999999999998</v>
-      </c>
-      <c r="C138" s="3">
-        <v>3.2780000000000001E-9</v>
-      </c>
-      <c r="D138" s="3">
-        <v>137200</v>
-      </c>
-      <c r="E138" s="3">
-        <v>4.4979999999999998E-4</v>
-      </c>
-      <c r="F138" s="3">
-        <v>4.1849999999999997E-6</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0.29020000000000001</v>
-      </c>
-      <c r="I138">
-        <v>200</v>
-      </c>
-      <c r="J138">
-        <v>0.26019999999999999</v>
-      </c>
-      <c r="K138" s="3">
-        <v>2.9199999999999998E-9</v>
-      </c>
-      <c r="L138" s="3">
-        <v>138500</v>
-      </c>
-      <c r="M138" s="3">
-        <v>4.0440000000000002E-4</v>
-      </c>
-      <c r="N138" s="3">
-        <v>5.6239999999999999E-6</v>
-      </c>
-      <c r="O138">
-        <v>0.28149999999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>100</v>
-      </c>
-      <c r="B139" s="3">
-        <v>0.2331</v>
-      </c>
-      <c r="C139" s="3">
-        <v>2.4880000000000001E-9</v>
-      </c>
-      <c r="D139" s="3">
-        <v>160200</v>
-      </c>
-      <c r="E139" s="3">
-        <v>3.9859999999999999E-4</v>
-      </c>
-      <c r="F139" s="3">
-        <v>3.4599999999999999E-6</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0.25850000000000001</v>
-      </c>
-      <c r="I139">
-        <v>100</v>
-      </c>
-      <c r="J139">
-        <v>0.2364</v>
-      </c>
-      <c r="K139" s="3">
-        <v>2.7590000000000001E-9</v>
-      </c>
-      <c r="L139" s="3">
-        <v>146600</v>
-      </c>
-      <c r="M139" s="3">
-        <v>4.0450000000000002E-4</v>
-      </c>
-      <c r="N139" s="3">
-        <v>4.9300000000000002E-6</v>
-      </c>
-      <c r="O139">
-        <v>0.25940000000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>50</v>
-      </c>
-      <c r="B140" s="3">
-        <v>0.22509999999999999</v>
-      </c>
-      <c r="C140" s="3">
-        <v>2.4749999999999998E-9</v>
-      </c>
-      <c r="D140" s="3">
-        <v>167600</v>
-      </c>
-      <c r="E140" s="3">
-        <v>4.147E-4</v>
-      </c>
-      <c r="F140" s="3">
-        <v>4.0860000000000004E-6</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="I140">
-        <v>50</v>
-      </c>
-      <c r="J140">
-        <v>0.2334</v>
-      </c>
-      <c r="K140" s="3">
-        <v>2.3130000000000002E-9</v>
-      </c>
-      <c r="L140" s="3">
-        <v>148300</v>
-      </c>
-      <c r="M140" s="3">
-        <v>3.4299999999999999E-4</v>
-      </c>
-      <c r="N140" s="3">
-        <v>6.9439999999999999E-6</v>
-      </c>
-      <c r="O140">
-        <v>0.25419999999999998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>25</v>
-      </c>
-      <c r="B141" s="3">
-        <v>0.2288</v>
-      </c>
-      <c r="C141" s="3">
-        <v>3.1490000000000002E-9</v>
-      </c>
-      <c r="D141" s="3">
-        <v>156000</v>
-      </c>
-      <c r="E141" s="3">
-        <v>4.9120000000000001E-4</v>
-      </c>
-      <c r="F141" s="3">
-        <v>3.8809999999999998E-6</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0.2626</v>
-      </c>
-      <c r="I141">
-        <v>25</v>
-      </c>
-      <c r="J141">
-        <v>0.23649999999999999</v>
-      </c>
-      <c r="K141" s="3">
-        <v>2.833E-9</v>
-      </c>
-      <c r="L141" s="3">
-        <v>147000</v>
-      </c>
-      <c r="M141" s="3">
-        <v>4.1629999999999998E-4</v>
-      </c>
-      <c r="N141" s="3">
-        <v>6.6120000000000004E-6</v>
-      </c>
-      <c r="O141">
-        <v>0.2656</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>12.5</v>
-      </c>
-      <c r="B142" s="3">
-        <v>0.18360000000000001</v>
-      </c>
-      <c r="C142" s="3">
-        <v>2.067E-9</v>
-      </c>
-      <c r="D142" s="3">
-        <v>185900</v>
-      </c>
-      <c r="E142" s="3">
-        <v>3.8420000000000001E-4</v>
-      </c>
-      <c r="F142" s="3">
-        <v>4.4499999999999997E-6</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0.21340000000000001</v>
-      </c>
-      <c r="I142">
-        <v>12.5</v>
-      </c>
-      <c r="J142">
-        <v>0.1963</v>
-      </c>
-      <c r="K142" s="3">
-        <v>2.4870000000000002E-9</v>
-      </c>
-      <c r="L142" s="3">
-        <v>158900</v>
-      </c>
-      <c r="M142" s="3">
-        <v>3.9520000000000001E-4</v>
-      </c>
-      <c r="N142" s="3">
-        <v>8.3690000000000007E-6</v>
-      </c>
-      <c r="O142">
-        <v>0.2354</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>6.25</v>
-      </c>
-      <c r="B143" s="3">
-        <v>0.15870000000000001</v>
-      </c>
-      <c r="C143" s="3">
-        <v>3.2259999999999998E-9</v>
-      </c>
-      <c r="D143" s="3">
-        <v>165600</v>
-      </c>
-      <c r="E143" s="3">
-        <v>5.3419999999999997E-4</v>
-      </c>
-      <c r="F143" s="3">
-        <v>5.3249999999999998E-6</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0.24349999999999999</v>
-      </c>
-      <c r="I143">
-        <v>6.25</v>
-      </c>
-      <c r="J143">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="K143" s="3">
-        <v>2.7729999999999998E-9</v>
-      </c>
-      <c r="L143" s="3">
-        <v>144400</v>
-      </c>
-      <c r="M143" s="3">
-        <v>4.0030000000000003E-4</v>
-      </c>
-      <c r="N143" s="3">
-        <v>1.0020000000000001E-5</v>
-      </c>
-      <c r="O143">
-        <v>0.24529999999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="3">
-        <f>AVERAGE(C130:C135,C137:C142)*10^9</f>
-        <v>2.6211666666666669</v>
-      </c>
-      <c r="D145" s="3">
-        <f t="shared" ref="D145:E145" si="12">AVERAGE(D130:D135,D137:D142)*10^9</f>
-        <v>150583333333333.34</v>
-      </c>
-      <c r="E145" s="3">
-        <f t="shared" si="12"/>
-        <v>386733.33333333337</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="J145" t="s">
-        <v>17</v>
-      </c>
-      <c r="K145" s="3">
-        <f>AVERAGE(K130:K135,K137:K142)*10^9</f>
-        <v>3.0090000000000003</v>
-      </c>
-      <c r="L145" s="3">
-        <f t="shared" ref="L145:M145" si="13">AVERAGE(L130:L135,L137:L142)*10^9</f>
-        <v>129931666666666.67</v>
-      </c>
-      <c r="M145" s="3">
-        <f t="shared" si="13"/>
-        <v>380383.33333333337</v>
-      </c>
-      <c r="O145" s="3"/>
+    <row r="145" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W145" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>43837</v>
-      </c>
-      <c r="I148" s="2">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>6</v>
-      </c>
-      <c r="G149" t="s">
-        <v>7</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1</v>
-      </c>
-      <c r="J149" t="s">
-        <v>2</v>
-      </c>
-      <c r="K149" t="s">
-        <v>3</v>
-      </c>
-      <c r="L149" t="s">
-        <v>9</v>
-      </c>
-      <c r="M149" t="s">
-        <v>5</v>
-      </c>
-      <c r="N149" t="s">
-        <v>6</v>
-      </c>
-      <c r="O149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>400</v>
-      </c>
-      <c r="B150">
-        <v>0.29509999999999997</v>
-      </c>
-      <c r="C150" s="3">
-        <v>3.9860000000000001E-9</v>
-      </c>
-      <c r="D150" s="3">
-        <v>90460</v>
-      </c>
-      <c r="E150" s="3">
-        <v>3.6059999999999998E-4</v>
-      </c>
-      <c r="F150" s="3">
-        <v>4.1150000000000004E-6</v>
-      </c>
-      <c r="G150">
-        <v>0.30630000000000002</v>
-      </c>
-      <c r="I150">
-        <v>400</v>
-      </c>
-      <c r="J150">
-        <v>0.31640000000000001</v>
-      </c>
-      <c r="K150" s="3">
-        <v>4.2549999999999999E-9</v>
-      </c>
-      <c r="L150" s="3">
-        <v>102000</v>
-      </c>
-      <c r="M150" s="3">
-        <v>4.3399999999999998E-4</v>
-      </c>
-      <c r="N150" s="3">
-        <v>3.8249999999999998E-6</v>
-      </c>
-      <c r="O150">
-        <v>0.3327</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>200</v>
-      </c>
-      <c r="B151">
-        <v>0.2475</v>
-      </c>
-      <c r="C151" s="3">
-        <v>3.3980000000000001E-9</v>
-      </c>
-      <c r="D151" s="3">
-        <v>116400</v>
-      </c>
-      <c r="E151" s="3">
-        <v>3.9550000000000002E-4</v>
-      </c>
-      <c r="F151" s="3">
-        <v>3.281E-6</v>
-      </c>
-      <c r="G151">
-        <v>0.26860000000000001</v>
-      </c>
-      <c r="I151">
-        <v>200</v>
-      </c>
-      <c r="J151">
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="K151" s="3">
-        <v>3.7529999999999998E-9</v>
-      </c>
-      <c r="L151" s="3">
-        <v>112700</v>
-      </c>
-      <c r="M151" s="3">
-        <v>4.2309999999999998E-4</v>
-      </c>
-      <c r="N151" s="3">
-        <v>3.3359999999999999E-6</v>
-      </c>
-      <c r="O151">
-        <v>0.31030000000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>100</v>
-      </c>
-      <c r="B152">
-        <v>0.2485</v>
-      </c>
-      <c r="C152" s="3">
-        <v>3.8929999999999997E-9</v>
-      </c>
-      <c r="D152" s="3">
-        <v>122100</v>
-      </c>
-      <c r="E152" s="3">
-        <v>4.7550000000000001E-4</v>
-      </c>
-      <c r="F152" s="3">
-        <v>2.8890000000000002E-6</v>
-      </c>
-      <c r="G152">
-        <v>0.26939999999999997</v>
-      </c>
-      <c r="I152">
-        <v>100</v>
-      </c>
-      <c r="J152">
-        <v>0.29210000000000003</v>
-      </c>
-      <c r="K152" s="3">
-        <v>3.7019999999999998E-9</v>
-      </c>
-      <c r="L152" s="3">
-        <v>117200</v>
-      </c>
-      <c r="M152" s="3">
-        <v>4.3379999999999997E-4</v>
-      </c>
-      <c r="N152" s="3">
-        <v>3.2880000000000001E-6</v>
-      </c>
-      <c r="O152">
-        <v>0.31269999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>50</v>
-      </c>
-      <c r="B153">
-        <v>0.24759999999999999</v>
-      </c>
-      <c r="C153" s="3">
-        <v>3.6519999999999998E-9</v>
-      </c>
-      <c r="D153" s="3">
-        <v>120300</v>
-      </c>
-      <c r="E153" s="3">
-        <v>4.392E-4</v>
-      </c>
-      <c r="F153" s="3">
-        <v>3.2119999999999999E-6</v>
-      </c>
-      <c r="G153">
-        <v>0.26889999999999997</v>
-      </c>
-      <c r="I153">
-        <v>50</v>
-      </c>
-      <c r="J153">
-        <v>0.29010000000000002</v>
-      </c>
-      <c r="K153" s="3">
-        <v>3.693E-9</v>
-      </c>
-      <c r="L153" s="3">
-        <v>114900</v>
-      </c>
-      <c r="M153" s="3">
-        <v>4.2430000000000001E-4</v>
-      </c>
-      <c r="N153" s="3">
-        <v>3.8709999999999999E-6</v>
-      </c>
-      <c r="O153">
-        <v>0.31130000000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>25</v>
-      </c>
-      <c r="B154">
-        <v>0.2354</v>
-      </c>
-      <c r="C154" s="3">
-        <v>3.414E-9</v>
-      </c>
-      <c r="D154" s="3">
-        <v>127300</v>
-      </c>
-      <c r="E154" s="3">
-        <v>4.348E-4</v>
-      </c>
-      <c r="F154" s="3">
-        <v>3.1350000000000001E-6</v>
-      </c>
-      <c r="G154">
-        <v>0.26719999999999999</v>
-      </c>
-      <c r="I154">
-        <v>25</v>
-      </c>
-      <c r="J154">
-        <v>0.28339999999999999</v>
-      </c>
-      <c r="K154" s="3">
-        <v>4.2109999999999996E-9</v>
-      </c>
-      <c r="L154" s="3">
-        <v>118900</v>
-      </c>
-      <c r="M154" s="3">
-        <v>5.0080000000000003E-4</v>
-      </c>
-      <c r="N154" s="3">
-        <v>4.1799999999999998E-6</v>
-      </c>
-      <c r="O154">
-        <v>0.32319999999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>12.5</v>
-      </c>
-      <c r="B155">
-        <v>0.1784</v>
-      </c>
-      <c r="C155" s="3">
-        <v>4.0270000000000003E-9</v>
-      </c>
-      <c r="D155" s="3">
-        <v>132100</v>
-      </c>
-      <c r="E155" s="3">
-        <v>5.3200000000000003E-4</v>
-      </c>
-      <c r="F155" s="3">
-        <v>4.9949999999999996E-6</v>
-      </c>
-      <c r="G155">
-        <v>0.2351</v>
-      </c>
-      <c r="I155">
-        <v>12.5</v>
-      </c>
-      <c r="J155">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="K155" s="3">
-        <v>3.5589999999999998E-9</v>
-      </c>
-      <c r="L155" s="3">
-        <v>125100</v>
-      </c>
-      <c r="M155" s="3">
-        <v>4.4509999999999998E-4</v>
-      </c>
-      <c r="N155" s="3">
-        <v>4.6020000000000002E-6</v>
-      </c>
-      <c r="O155">
-        <v>0.29409999999999997</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>6.25</v>
-      </c>
-      <c r="B156">
-        <v>0.14249999999999999</v>
-      </c>
-      <c r="C156" s="3">
-        <v>2.4070000000000001E-9</v>
-      </c>
-      <c r="D156" s="3">
-        <v>152000</v>
-      </c>
-      <c r="E156" s="3">
-        <v>3.658E-4</v>
-      </c>
-      <c r="F156" s="3">
-        <v>6.195E-6</v>
-      </c>
-      <c r="G156">
-        <v>0.2039</v>
-      </c>
-      <c r="I156">
-        <v>6.25</v>
-      </c>
-      <c r="J156">
-        <v>0.153</v>
-      </c>
-      <c r="K156" s="3">
-        <v>2.7970000000000002E-9</v>
-      </c>
-      <c r="L156" s="3">
-        <v>123400</v>
-      </c>
-      <c r="M156" s="3">
-        <v>3.4519999999999999E-4</v>
-      </c>
-      <c r="N156" s="3">
-        <v>7.7640000000000005E-6</v>
-      </c>
-      <c r="O156">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>400</v>
-      </c>
-      <c r="B157">
-        <v>0.3256</v>
-      </c>
-      <c r="C157" s="3">
-        <v>6.6379999999999996E-9</v>
-      </c>
-      <c r="D157" s="3">
-        <v>79970</v>
-      </c>
-      <c r="E157" s="3">
-        <v>5.308E-4</v>
-      </c>
-      <c r="F157" s="3">
-        <v>3.4659999999999999E-6</v>
-      </c>
-      <c r="G157">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="I157">
-        <v>400</v>
-      </c>
-      <c r="J157">
-        <v>0.32540000000000002</v>
-      </c>
-      <c r="K157" s="3">
-        <v>4.7740000000000003E-9</v>
-      </c>
-      <c r="L157" s="3">
-        <v>101500</v>
-      </c>
-      <c r="M157" s="3">
-        <v>4.8460000000000002E-4</v>
-      </c>
-      <c r="N157" s="3">
-        <v>3.0350000000000002E-6</v>
-      </c>
-      <c r="O157">
-        <v>0.34089999999999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>200</v>
-      </c>
-      <c r="B158">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="C158" s="3">
-        <v>4.5859999999999997E-9</v>
-      </c>
-      <c r="D158" s="3">
-        <v>105400</v>
-      </c>
-      <c r="E158" s="3">
-        <v>4.8339999999999999E-4</v>
-      </c>
-      <c r="F158" s="3">
-        <v>2.898E-6</v>
-      </c>
-      <c r="G158">
-        <v>0.28920000000000001</v>
-      </c>
-      <c r="I158">
-        <v>200</v>
-      </c>
-      <c r="J158">
-        <v>0.32079999999999997</v>
-      </c>
-      <c r="K158" s="3">
-        <v>4.5859999999999997E-9</v>
-      </c>
-      <c r="L158" s="3">
-        <v>104100</v>
-      </c>
-      <c r="M158" s="3">
-        <v>4.772E-4</v>
-      </c>
-      <c r="N158" s="3">
-        <v>2.892E-6</v>
-      </c>
-      <c r="O158">
-        <v>0.33889999999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>100</v>
-      </c>
-      <c r="B159">
-        <v>0.26569999999999999</v>
-      </c>
-      <c r="C159" s="3">
-        <v>4.1549999999999998E-9</v>
-      </c>
-      <c r="D159" s="3">
-        <v>108500</v>
-      </c>
-      <c r="E159" s="3">
-        <v>4.5090000000000001E-4</v>
-      </c>
-      <c r="F159" s="3">
-        <v>2.7860000000000001E-6</v>
-      </c>
-      <c r="G159">
-        <v>0.27989999999999998</v>
-      </c>
-      <c r="I159">
-        <v>100</v>
-      </c>
-      <c r="J159">
-        <v>0.2893</v>
-      </c>
-      <c r="K159" s="3">
-        <v>3.8639999999999999E-9</v>
-      </c>
-      <c r="L159" s="3">
-        <v>116600</v>
-      </c>
-      <c r="M159" s="3">
-        <v>4.504E-4</v>
-      </c>
-      <c r="N159" s="3">
-        <v>3.05E-6</v>
-      </c>
-      <c r="O159">
-        <v>0.30859999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>50</v>
-      </c>
-      <c r="B160">
-        <v>0.2419</v>
-      </c>
-      <c r="C160" s="3">
-        <v>3.8309999999999997E-9</v>
-      </c>
-      <c r="D160" s="3">
-        <v>118400</v>
-      </c>
-      <c r="E160" s="3">
-        <v>4.5370000000000002E-4</v>
-      </c>
-      <c r="F160" s="3">
-        <v>2.5940000000000001E-6</v>
-      </c>
-      <c r="G160">
-        <v>0.26079999999999998</v>
-      </c>
-      <c r="I160">
-        <v>50</v>
-      </c>
-      <c r="J160">
-        <v>0.2671</v>
-      </c>
-      <c r="K160" s="3">
-        <v>3.6830000000000002E-9</v>
-      </c>
-      <c r="L160" s="3">
-        <v>117400</v>
-      </c>
-      <c r="M160" s="3">
-        <v>4.3239999999999999E-4</v>
-      </c>
-      <c r="N160" s="3">
-        <v>3.5020000000000001E-6</v>
-      </c>
-      <c r="O160">
-        <v>0.28849999999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>25</v>
-      </c>
-      <c r="B161">
-        <v>0.2311</v>
-      </c>
-      <c r="C161" s="3">
-        <v>3.9519999999999996E-9</v>
-      </c>
-      <c r="D161" s="3">
-        <v>121600</v>
-      </c>
-      <c r="E161" s="3">
-        <v>4.8050000000000002E-4</v>
-      </c>
-      <c r="F161" s="3">
-        <v>2.9129999999999999E-6</v>
-      </c>
-      <c r="G161">
-        <v>0.26440000000000002</v>
-      </c>
-      <c r="I161">
-        <v>25</v>
-      </c>
-      <c r="J161">
-        <v>0.26340000000000002</v>
-      </c>
-      <c r="K161" s="3">
-        <v>3.6950000000000002E-9</v>
-      </c>
-      <c r="L161" s="3">
-        <v>125800</v>
-      </c>
-      <c r="M161" s="3">
-        <v>4.6460000000000002E-4</v>
-      </c>
-      <c r="N161" s="3">
-        <v>3.9299999999999996E-6</v>
-      </c>
-      <c r="O161">
-        <v>0.2989</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>12.5</v>
-      </c>
-      <c r="B162">
-        <v>0.20069999999999999</v>
-      </c>
-      <c r="C162" s="3">
-        <v>3.255E-9</v>
-      </c>
-      <c r="D162" s="3">
-        <v>132700</v>
-      </c>
-      <c r="E162" s="3">
-        <v>4.3189999999999998E-4</v>
-      </c>
-      <c r="F162" s="3">
-        <v>3.467E-6</v>
-      </c>
-      <c r="G162">
-        <v>0.2505</v>
-      </c>
-      <c r="I162">
-        <v>12.5</v>
-      </c>
-      <c r="J162">
-        <v>0.22420000000000001</v>
-      </c>
-      <c r="K162" s="3">
-        <v>3.317E-9</v>
-      </c>
-      <c r="L162" s="3">
-        <v>136700</v>
-      </c>
-      <c r="M162" s="3">
-        <v>4.5340000000000002E-4</v>
-      </c>
-      <c r="N162" s="3">
-        <v>4.6920000000000001E-6</v>
-      </c>
-      <c r="O162">
-        <v>0.28060000000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>6.25</v>
-      </c>
-      <c r="B163">
-        <v>0.16470000000000001</v>
-      </c>
-      <c r="C163" s="3">
-        <v>3.1730000000000001E-9</v>
-      </c>
-      <c r="D163" s="3">
-        <v>142700</v>
-      </c>
-      <c r="E163" s="3">
-        <v>4.529E-4</v>
-      </c>
-      <c r="F163" s="3">
-        <v>4.2050000000000004E-6</v>
-      </c>
-      <c r="G163">
-        <v>0.25369999999999998</v>
-      </c>
-      <c r="I163">
-        <v>6.25</v>
-      </c>
-      <c r="J163">
-        <v>0.18010000000000001</v>
-      </c>
-      <c r="K163" s="3">
-        <v>3.6739999999999999E-9</v>
-      </c>
-      <c r="L163" s="3">
-        <v>140000</v>
-      </c>
-      <c r="M163" s="3">
-        <v>5.1429999999999998E-4</v>
-      </c>
-      <c r="N163" s="3">
-        <v>5.7300000000000002E-6</v>
-      </c>
-      <c r="O163">
-        <v>0.2928</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="3">
-        <f>AVERAGE(C150:C155,C157:C162)*10^9</f>
-        <v>4.0655833333333327</v>
-      </c>
-      <c r="D165" s="3">
-        <f t="shared" ref="D165:E165" si="14">AVERAGE(D150:D155,D157:D162)*10^9</f>
-        <v>114602500000000</v>
-      </c>
-      <c r="E165" s="3">
-        <f t="shared" si="14"/>
-        <v>455733.33333333337</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="J165" t="s">
-        <v>17</v>
-      </c>
-      <c r="K165" s="3">
-        <f>AVERAGE(K150:K155,K157:K162)*10^9</f>
-        <v>3.9243333333333337</v>
-      </c>
-      <c r="L165" s="3">
-        <f t="shared" ref="L165:M165" si="15">AVERAGE(L150:L155,L157:L162)*10^9</f>
-        <v>116075000000000</v>
-      </c>
-      <c r="M165" s="3">
-        <f t="shared" si="15"/>
-        <v>451975</v>
-      </c>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="17:25" x14ac:dyDescent="0.35">
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
       <c r="U173" s="3"/>
@@ -6194,7 +4790,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="17:25" x14ac:dyDescent="0.35">
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
       <c r="U174" s="3"/>
@@ -6202,7 +4798,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
@@ -6213,7 +4809,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
@@ -6224,7 +4820,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
@@ -6235,7 +4831,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
@@ -6246,7 +4842,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
@@ -6257,7 +4853,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q180" s="3"/>
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
@@ -6268,7 +4864,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
@@ -6279,7 +4875,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
@@ -6290,7 +4886,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
@@ -6301,7 +4897,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
@@ -6312,7 +4908,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
@@ -6323,7 +4919,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q186" s="3"/>
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
@@ -6334,7 +4930,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
       <c r="T187" s="3"/>
@@ -6342,7 +4938,7 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
     </row>
-    <row r="188" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="17:25" x14ac:dyDescent="0.35">
       <c r="Q188" s="3"/>
       <c r="R188" s="3"/>
       <c r="T188" s="3"/>
@@ -6350,7 +4946,7 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="192" spans="17:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="17:25" x14ac:dyDescent="0.35">
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
       <c r="U192" s="3"/>
@@ -6358,7 +4954,7 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
       <c r="U193" s="3"/>
@@ -6366,7 +4962,7 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
       <c r="U194" s="3"/>
@@ -6374,7 +4970,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
       <c r="U195" s="3"/>
@@ -6382,19 +4978,19 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="18:25" x14ac:dyDescent="0.35">
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="198" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="18:25" x14ac:dyDescent="0.35">
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
     </row>
-    <row r="199" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
       <c r="U199" s="3"/>
@@ -6402,7 +4998,7 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
     </row>
-    <row r="200" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
       <c r="U200" s="3"/>
@@ -6410,7 +5006,7 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
     </row>
-    <row r="201" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
       <c r="U201" s="3"/>
@@ -6418,7 +5014,7 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
     </row>
-    <row r="202" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R202" s="3"/>
       <c r="S202" s="3"/>
       <c r="U202" s="3"/>
@@ -6426,13 +5022,13 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
     </row>
-    <row r="203" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="18:25" x14ac:dyDescent="0.35">
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
     </row>
-    <row r="204" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
       <c r="U204" s="3"/>
@@ -6440,7 +5036,7 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
       <c r="U205" s="3"/>
